--- a/examples/a5cbe768bee30be3638f434cd46d22eb_data_entry.xlsx
+++ b/examples/a5cbe768bee30be3638f434cd46d22eb_data_entry.xlsx
@@ -248,17 +248,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -653,7 +653,7 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -681,7 +681,7 @@
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -709,7 +709,7 @@
       <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -737,7 +737,7 @@
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -769,7 +769,7 @@
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -797,7 +797,7 @@
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -823,50 +823,50 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>50</v>
       </c>
     </row>
